--- a/Leetcode/Leetcode 75 Questions.xlsx
+++ b/Leetcode/Leetcode 75 Questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recha\Desktop\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077807AB-0899-46DF-B5EA-D68296ECC3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B642E137-AD53-4D60-B942-F1BD2F84E8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,13 +989,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,8 +1021,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1039,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1048,7 +1119,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1269,8 +1352,8 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1379,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1310,7 +1393,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1324,7 +1407,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1338,7 +1421,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1352,7 +1435,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1366,7 +1449,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1380,7 +1463,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1394,7 +1477,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1408,7 +1491,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1422,7 +1505,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1436,7 +1519,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1450,7 +1533,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1464,7 +1547,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1478,7 +1561,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1492,7 +1575,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1506,7 +1589,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1520,7 +1603,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1534,7 +1617,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1548,7 +1631,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1562,7 +1645,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1576,7 +1659,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1590,7 +1673,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1604,7 +1687,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1618,7 +1701,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1632,7 +1715,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1646,7 +1729,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1660,7 +1743,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1674,7 +1757,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1688,7 +1771,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1702,7 +1785,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1716,7 +1799,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1730,7 +1813,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1744,7 +1827,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1758,7 +1841,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1772,7 +1855,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1786,7 +1869,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -1800,7 +1883,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1814,7 +1897,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1828,7 +1911,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -1842,7 +1925,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1856,7 +1939,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1870,7 +1953,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1884,7 +1967,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -1898,7 +1981,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -1912,7 +1995,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1926,7 +2009,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="16" t="s">
         <v>184</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -1940,7 +2023,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="16" t="s">
         <v>188</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -1954,7 +2037,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="16" t="s">
         <v>192</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1968,7 +2051,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="16" t="s">
         <v>196</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1982,7 +2065,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="17" t="s">
         <v>200</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1996,7 +2079,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="17" t="s">
         <v>204</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2010,7 +2093,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="17" t="s">
         <v>208</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -2024,7 +2107,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="17" t="s">
         <v>212</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2038,7 +2121,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="17" t="s">
         <v>216</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2052,7 +2135,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="17" t="s">
         <v>220</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2066,7 +2149,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="17" t="s">
         <v>224</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2080,7 +2163,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="17" t="s">
         <v>228</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -2094,7 +2177,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="17" t="s">
         <v>232</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2108,7 +2191,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="18" t="s">
         <v>236</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2122,7 +2205,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="19" t="s">
         <v>240</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2136,7 +2219,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="19" t="s">
         <v>244</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2150,7 +2233,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="19" t="s">
         <v>248</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2164,7 +2247,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="19" t="s">
         <v>252</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -2178,7 +2261,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="19" t="s">
         <v>256</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2192,7 +2275,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="19" t="s">
         <v>260</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -2206,7 +2289,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="19" t="s">
         <v>264</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2220,7 +2303,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="19" t="s">
         <v>268</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -2234,7 +2317,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="19" t="s">
         <v>272</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -2248,7 +2331,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="19" t="s">
         <v>276</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -2262,7 +2345,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="19" t="s">
         <v>280</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -2276,7 +2359,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="19" t="s">
         <v>284</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -2290,7 +2373,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="19" t="s">
         <v>288</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -2304,7 +2387,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="19" t="s">
         <v>292</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -2318,7 +2401,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="20" t="s">
         <v>296</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -2332,7 +2415,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="20" t="s">
         <v>298</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -2346,7 +2429,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="20" t="s">
         <v>302</v>
       </c>
       <c r="B77" s="7" t="s">
